--- a/src/test/resources/Data/GetEmployeeData.xlsx
+++ b/src/test/resources/Data/GetEmployeeData.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sarit\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sarit\eclipse-workspace\employee-api-tests\src\test\resources\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{04293781-E31C-4A25-8388-CB4EC077F3BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1AFED7B-4E60-41A8-8CFE-4DE4D3C15A96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{F0B7B5AE-6266-4CA6-9D41-6C5D1CADB66D}"/>
   </bookViews>
@@ -38,9 +38,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
-    <t>testGetUserDataSuccess</t>
-  </si>
-  <si>
     <t>id</t>
   </si>
   <si>
@@ -78,6 +75,9 @@
   </si>
   <si>
     <t>To keep ReqRes free, contributions towards server costs are appreciated!</t>
+  </si>
+  <si>
+    <t>TCG01_ValidateGetRequestForValidUser</t>
   </si>
 </sst>
 </file>
@@ -102,12 +102,6 @@
     </font>
     <font>
       <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
@@ -131,6 +125,12 @@
       <color theme="10"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="3">
@@ -162,24 +162,22 @@
   </cellStyleXfs>
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -517,65 +515,63 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A45579F-8418-422F-8A3E-20D8E5EF5099}">
   <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="56.109375" style="3" customWidth="1"/>
-    <col min="2" max="16384" width="8.88671875" style="2"/>
+    <col min="1" max="1" width="56.109375" style="2" customWidth="1"/>
+    <col min="2" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="E2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="F2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="G2" s="3" t="s">
         <v>6</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="3">
+      <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="D3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="E3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="F3" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="G3" s="4" t="s">
         <v>12</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>13</v>
       </c>
     </row>
   </sheetData>
